--- a/Files/Inventory_data.xlsx
+++ b/Files/Inventory_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgouv\Desktop\IN+\Waste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgouv\PycharmProjects\IN+\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE206285-4341-4ADA-ADFB-48E4AD6CCEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668120C3-E15A-408B-9DFD-F9354E78781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92E2ADF7-73FA-428E-B24A-CF1333C5A8EE}"/>
   </bookViews>
@@ -820,12 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -840,27 +834,26 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1200,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8C5DE7-3C02-44B7-92D3-18AE381DDFC3}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1205,7 @@
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1241,7 +1234,7 @@
       </c>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="76"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -1270,7 +1263,7 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="76"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1297,7 +1290,7 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="76"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
@@ -1324,7 +1317,7 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="76"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
@@ -1353,7 +1346,7 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="76"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
@@ -1380,7 +1373,7 @@
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="76"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
@@ -1407,7 +1400,7 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="76"/>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1434,10 +1427,10 @@
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="76"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="84" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="60"/>
@@ -1463,10 +1456,10 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="76"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="60"/>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -1490,10 +1483,10 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="76"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="60"/>
       <c r="C11" s="9" t="s">
         <v>26</v>
@@ -1510,16 +1503,16 @@
         <v>151515</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="78">
+      <c r="H11" s="76">
         <f>SUM(H2:H10)</f>
         <v>15.309744999999998</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="76"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="60"/>
       <c r="C12" s="9"/>
       <c r="D12" s="12"/>
@@ -1529,10 +1522,10 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="76"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="60"/>
       <c r="C13" s="28" t="s">
         <v>1</v>
@@ -1556,10 +1549,10 @@
         <v>31</v>
       </c>
       <c r="J13" s="12"/>
-      <c r="K13" s="76"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="60"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
@@ -1584,10 +1577,10 @@
         <v>100</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="76"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="60"/>
       <c r="C15" s="9" t="s">
         <v>18</v>
@@ -1612,10 +1605,10 @@
         <v>100</v>
       </c>
       <c r="J15" s="12"/>
-      <c r="K15" s="76"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="60"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
@@ -1640,10 +1633,10 @@
         <v>100</v>
       </c>
       <c r="J16" s="12"/>
-      <c r="K16" s="76"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="60"/>
       <c r="C17" s="9" t="s">
         <v>20</v>
@@ -1668,10 +1661,10 @@
         <v>100</v>
       </c>
       <c r="J17" s="12"/>
-      <c r="K17" s="76"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="60"/>
       <c r="C18" s="5" t="s">
         <v>21</v>
@@ -1696,10 +1689,10 @@
         <v>100</v>
       </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="76"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="60"/>
       <c r="C19" s="9" t="s">
         <v>22</v>
@@ -1724,10 +1717,10 @@
         <v>100</v>
       </c>
       <c r="J19" s="12"/>
-      <c r="K19" s="76"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="60"/>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -1752,10 +1745,10 @@
         <v>100</v>
       </c>
       <c r="J20" s="12"/>
-      <c r="K20" s="76"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="60"/>
       <c r="C21" s="9" t="s">
         <v>24</v>
@@ -1780,10 +1773,10 @@
         <v>100</v>
       </c>
       <c r="J21" s="12"/>
-      <c r="K21" s="76"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="60"/>
       <c r="C22" s="5" t="s">
         <v>25</v>
@@ -1808,10 +1801,10 @@
         <v>100</v>
       </c>
       <c r="J22" s="12"/>
-      <c r="K22" s="76"/>
+      <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="60"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1821,10 +1814,10 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="76"/>
+      <c r="K23" s="74"/>
     </row>
     <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="60"/>
       <c r="C24" s="28" t="s">
         <v>1</v>
@@ -1848,10 +1841,10 @@
         <v>37</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="76"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="60"/>
       <c r="C25" s="5" t="s">
         <v>17</v>
@@ -1880,18 +1873,18 @@
         <f>SUM(D25:H25)</f>
         <v>37878.75</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="76"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="74"/>
       <c r="L25" s="36"/>
       <c r="M25" s="64"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="60"/>
       <c r="C26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="77">
         <f>D15/100*$F$3</f>
         <v>0</v>
       </c>
@@ -1907,7 +1900,7 @@
         <f t="shared" si="6"/>
         <v>12121.2</v>
       </c>
-      <c r="H26" s="80">
+      <c r="H26" s="78">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1915,12 +1908,12 @@
         <f t="shared" ref="I26:I33" si="7">SUM(D26:H26)</f>
         <v>15151.5</v>
       </c>
-      <c r="J26" s="77"/>
-      <c r="K26" s="76"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="74"/>
       <c r="M26" s="64"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="60"/>
       <c r="C27" s="5" t="s">
         <v>19</v>
@@ -1949,17 +1942,17 @@
         <f t="shared" si="7"/>
         <v>18181.8</v>
       </c>
-      <c r="J27" s="77"/>
-      <c r="K27" s="76"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="74"/>
       <c r="M27" s="64"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="60"/>
       <c r="C28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="77">
         <f>D17/100*$F$5</f>
         <v>909.09</v>
       </c>
@@ -1975,7 +1968,7 @@
         <f t="shared" si="9"/>
         <v>454.54500000000002</v>
       </c>
-      <c r="H28" s="80">
+      <c r="H28" s="78">
         <f t="shared" si="9"/>
         <v>909.09</v>
       </c>
@@ -1983,12 +1976,12 @@
         <f t="shared" si="7"/>
         <v>4545.45</v>
       </c>
-      <c r="J28" s="77"/>
-      <c r="K28" s="76"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="74"/>
       <c r="M28" s="64"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="60"/>
       <c r="C29" s="5" t="s">
         <v>21</v>
@@ -2017,17 +2010,17 @@
         <f t="shared" si="7"/>
         <v>22727.25</v>
       </c>
-      <c r="J29" s="77"/>
-      <c r="K29" s="76"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="74"/>
       <c r="M29" s="64"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="60"/>
       <c r="C30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="77">
         <f>D19/100*$F$7</f>
         <v>0</v>
       </c>
@@ -2043,7 +2036,7 @@
         <f t="shared" si="11"/>
         <v>1818.18</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="78">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2051,12 +2044,12 @@
         <f t="shared" si="7"/>
         <v>6060.6</v>
       </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="76"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="74"/>
       <c r="M30" s="64"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="60"/>
       <c r="C31" s="5" t="s">
         <v>23</v>
@@ -2085,16 +2078,16 @@
         <f t="shared" si="7"/>
         <v>30302.999999999996</v>
       </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="76"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="74"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="60"/>
       <c r="C32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="77">
         <f>D21/100*$F$9</f>
         <v>0</v>
       </c>
@@ -2110,7 +2103,7 @@
         <f t="shared" si="13"/>
         <v>1515.15</v>
       </c>
-      <c r="H32" s="80">
+      <c r="H32" s="78">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2118,8 +2111,8 @@
         <f t="shared" si="7"/>
         <v>1515.15</v>
       </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="76"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="74"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
@@ -2151,8 +2144,8 @@
         <f t="shared" si="7"/>
         <v>15151.5</v>
       </c>
-      <c r="J33" s="77"/>
-      <c r="K33" s="76"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="74"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -2168,20 +2161,20 @@
         <v>151515</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="76"/>
+      <c r="K34" s="74"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
@@ -2194,7 +2187,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="76"/>
+      <c r="K36" s="74"/>
     </row>
     <row r="37" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
@@ -2217,10 +2210,10 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="76"/>
+      <c r="K37" s="74"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="85">
+      <c r="A38" s="82">
         <f>SUM(E38:E46)</f>
         <v>56469</v>
       </c>
@@ -2242,12 +2235,12 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="76"/>
+      <c r="K38" s="74"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="60"/>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="83" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2264,7 +2257,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="76"/>
+      <c r="K39" s="74"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
@@ -2286,14 +2279,14 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="76"/>
+      <c r="K40" s="74"/>
     </row>
     <row r="41" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="60"/>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="83" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -2310,7 +2303,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="76"/>
+      <c r="K41" s="74"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
@@ -2332,7 +2325,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="76"/>
+      <c r="K42" s="74"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
@@ -2354,7 +2347,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="76"/>
+      <c r="K43" s="74"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
@@ -2376,7 +2369,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="76"/>
+      <c r="K44" s="74"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
@@ -2398,7 +2391,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="76"/>
+      <c r="K45" s="74"/>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
@@ -2420,10 +2413,10 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="76"/>
+      <c r="K46" s="74"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="85" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="60"/>
@@ -2445,10 +2438,10 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="76"/>
+      <c r="K47" s="74"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="60"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -2458,39 +2451,39 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="76"/>
+      <c r="K48" s="74"/>
     </row>
     <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="75"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="60"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
-      <c r="K49" s="76"/>
+      <c r="K49" s="74"/>
     </row>
     <row r="50" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A50" s="75"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="60"/>
       <c r="C50" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="81" t="s">
+      <c r="D50" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="82" t="s">
+      <c r="E50" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="82" t="s">
+      <c r="F50" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="83" t="s">
+      <c r="G50" s="81" t="s">
         <v>50</v>
       </c>
       <c r="H50" s="20" t="s">
@@ -2498,10 +2491,10 @@
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
-      <c r="K50" s="76"/>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="60"/>
       <c r="C51" s="31" t="s">
         <v>56</v>
@@ -2524,12 +2517,12 @@
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
-      <c r="K51" s="76"/>
+      <c r="K51" s="74"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="60"/>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="83" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="52">
@@ -2550,10 +2543,10 @@
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
-      <c r="K52" s="76"/>
+      <c r="K52" s="74"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="60"/>
       <c r="C53" s="41" t="s">
         <v>58</v>
@@ -2576,12 +2569,12 @@
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="76"/>
+      <c r="K53" s="74"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="60"/>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="83" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="52">
@@ -2602,10 +2595,10 @@
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="76"/>
+      <c r="K54" s="74"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="60"/>
       <c r="C55" s="31" t="s">
         <v>60</v>
@@ -2628,10 +2621,10 @@
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="76"/>
+      <c r="K55" s="74"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="75"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="60"/>
       <c r="C56" s="9" t="s">
         <v>61</v>
@@ -2654,10 +2647,10 @@
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
-      <c r="K56" s="76"/>
+      <c r="K56" s="74"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="60"/>
       <c r="C57" s="31" t="s">
         <v>62</v>
@@ -2680,10 +2673,10 @@
       </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="76"/>
+      <c r="K57" s="74"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="60"/>
       <c r="C58" s="9" t="s">
         <v>67</v>
@@ -2706,10 +2699,10 @@
       </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="76"/>
+      <c r="K58" s="74"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="75"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="60"/>
       <c r="C59" s="31" t="s">
         <v>68</v>
@@ -2732,10 +2725,10 @@
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="76"/>
+      <c r="K59" s="74"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="60"/>
       <c r="C60" s="9"/>
       <c r="D60" s="12"/>
@@ -2745,10 +2738,10 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="76"/>
+      <c r="K60" s="74"/>
     </row>
     <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="60"/>
       <c r="C61" s="16" t="s">
         <v>1</v>
@@ -2770,10 +2763,10 @@
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="76"/>
+      <c r="K61" s="74"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="75"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="60"/>
       <c r="C62" s="31" t="s">
         <v>56</v>
@@ -2800,12 +2793,12 @@
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="76"/>
+      <c r="K62" s="74"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="60"/>
-      <c r="C63" s="86" t="s">
+      <c r="C63" s="83" t="s">
         <v>57</v>
       </c>
       <c r="D63" s="59">
@@ -2830,10 +2823,10 @@
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="76"/>
+      <c r="K63" s="74"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="60"/>
       <c r="C64" s="41" t="s">
         <v>58</v>
@@ -2860,12 +2853,12 @@
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
-      <c r="K64" s="76"/>
+      <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="60"/>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="83" t="s">
         <v>59</v>
       </c>
       <c r="D65" s="59">
@@ -2890,10 +2883,10 @@
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="76"/>
+      <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="75"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="60"/>
       <c r="C66" s="31" t="s">
         <v>60</v>
@@ -2920,10 +2913,10 @@
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
-      <c r="K66" s="76"/>
+      <c r="K66" s="74"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="60"/>
       <c r="C67" s="9" t="s">
         <v>61</v>
@@ -2950,10 +2943,10 @@
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="76"/>
+      <c r="K67" s="74"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="75"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="60"/>
       <c r="C68" s="31" t="s">
         <v>62</v>
@@ -2980,10 +2973,10 @@
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="76"/>
+      <c r="K68" s="74"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
+      <c r="A69" s="85"/>
       <c r="B69" s="60"/>
       <c r="C69" s="9" t="s">
         <v>67</v>
@@ -3010,10 +3003,10 @@
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
-      <c r="K69" s="76"/>
+      <c r="K69" s="74"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="75"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="60"/>
       <c r="C70" s="31" t="s">
         <v>68</v>
@@ -3040,10 +3033,10 @@
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
-      <c r="K70" s="76"/>
+      <c r="K70" s="74"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="75"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="60"/>
       <c r="C71" s="9"/>
       <c r="D71" s="12"/>
@@ -3053,10 +3046,10 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="76"/>
+      <c r="K71" s="74"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="75"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="60"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -3066,10 +3059,10 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="76"/>
+      <c r="K72" s="74"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="75"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="60"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -3079,10 +3072,10 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
-      <c r="K73" s="76"/>
+      <c r="K73" s="74"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="75"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="60"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -3092,7 +3085,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
-      <c r="K74" s="76"/>
+      <c r="K74" s="74"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
@@ -3105,7 +3098,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="76"/>
+      <c r="K75" s="74"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
@@ -3118,20 +3111,20 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="76"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="76"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
+      <c r="K76" s="74"/>
+    </row>
+    <row r="77" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="74"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Files/Inventory_data.xlsx
+++ b/Files/Inventory_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgouv\PycharmProjects\IN+\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668120C3-E15A-408B-9DFD-F9354E78781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A38F76-4350-4ECA-9E58-2E677B978D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92E2ADF7-73FA-428E-B24A-CF1333C5A8EE}"/>
   </bookViews>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8C5DE7-3C02-44B7-92D3-18AE381DDFC3}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,13 +1564,13 @@
         <v>20</v>
       </c>
       <c r="F14" s="8">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8">
         <f>SUM(D14:H14)</f>
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G15" s="12">
         <v>80</v>
       </c>
       <c r="H15" s="53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" ref="I15:I22" si="4">SUM(D15:H15)</f>
@@ -1620,13 +1620,13 @@
         <v>30</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
       </c>
       <c r="H16" s="22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="4"/>
@@ -1645,7 +1645,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F17" s="12">
         <v>50</v>
@@ -1654,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="53">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" si="4"/>
@@ -1670,10 +1670,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="21">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="4"/>
@@ -1707,10 +1707,10 @@
         <v>70</v>
       </c>
       <c r="G19" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H19" s="53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="12">
         <f t="shared" si="4"/>
@@ -1735,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H20" s="22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="4"/>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="12">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H21" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="12">
         <f t="shared" si="4"/>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H22" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="4"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F25" s="45">
         <f t="shared" si="5"/>
-        <v>22727.25</v>
+        <v>13257.5625</v>
       </c>
       <c r="G25" s="45">
         <f t="shared" si="5"/>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H25" s="46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9469.6875</v>
       </c>
       <c r="I25" s="8">
         <f>SUM(D25:H25)</f>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="6"/>
-        <v>3030.3</v>
+        <v>1515.15</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" si="6"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="H26" s="78">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1515.15</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" ref="I26:I33" si="7">SUM(D26:H26)</f>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="F27" s="45">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>545.45399999999995</v>
       </c>
       <c r="G27" s="45">
         <f t="shared" si="8"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="H27" s="46">
         <f t="shared" si="8"/>
-        <v>2727.27</v>
+        <v>2181.8159999999998</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="7"/>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E28" s="34">
         <f t="shared" ref="E28:H28" si="9">E17/100*$F$5</f>
-        <v>0</v>
+        <v>772.72649999999999</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="9"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="H28" s="78">
         <f t="shared" si="9"/>
-        <v>909.09</v>
+        <v>136.36349999999999</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="7"/>
@@ -1988,11 +1988,11 @@
       </c>
       <c r="D29" s="44">
         <f>D18/100*$F$6</f>
-        <v>18181.8</v>
+        <v>15909.074999999999</v>
       </c>
       <c r="E29" s="45">
         <f t="shared" ref="E29:H29" si="10">E18/100*$F$6</f>
-        <v>4545.45</v>
+        <v>3409.0875000000001</v>
       </c>
       <c r="F29" s="45">
         <f t="shared" si="10"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H29" s="46">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3409.0875000000001</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="7"/>
@@ -2034,11 +2034,11 @@
       </c>
       <c r="G30" s="34">
         <f t="shared" si="11"/>
-        <v>1818.18</v>
+        <v>1575.7560000000001</v>
       </c>
       <c r="H30" s="78">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>242.42400000000001</v>
       </c>
       <c r="I30" s="12">
         <f t="shared" si="7"/>
@@ -2068,15 +2068,15 @@
       </c>
       <c r="G31" s="45">
         <f t="shared" si="12"/>
-        <v>21212.1</v>
+        <v>18181.8</v>
       </c>
       <c r="H31" s="46">
         <f t="shared" si="12"/>
-        <v>3030.3</v>
+        <v>6060.6</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="7"/>
-        <v>30302.999999999996</v>
+        <v>30303</v>
       </c>
       <c r="J31" s="75"/>
       <c r="K31" s="74"/>
@@ -2101,11 +2101,11 @@
       </c>
       <c r="G32" s="34">
         <f t="shared" si="13"/>
-        <v>1515.15</v>
+        <v>1499.9985000000001</v>
       </c>
       <c r="H32" s="78">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15.1515</v>
       </c>
       <c r="I32" s="12">
         <f t="shared" si="7"/>
@@ -2134,11 +2134,11 @@
       </c>
       <c r="G33" s="48">
         <f t="shared" si="14"/>
-        <v>15151.5</v>
+        <v>13636.35</v>
       </c>
       <c r="H33" s="49">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1515.15</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="7"/>

--- a/Files/Inventory_data.xlsx
+++ b/Files/Inventory_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgouv\PycharmProjects\IN+\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A38F76-4350-4ECA-9E58-2E677B978D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABF865-7193-4CDA-999E-78586C3D2FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92E2ADF7-73FA-428E-B24A-CF1333C5A8EE}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Mixed waste to Landfill (t)</t>
   </si>
   <si>
-    <t>MIXED WASTE</t>
-  </si>
-  <si>
     <t>PET</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Non-ferrous metal</t>
   </si>
   <si>
-    <t>Separately collected Waste</t>
-  </si>
-  <si>
     <t>S.C. = Separately Collected</t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>B9</t>
+  </si>
+  <si>
+    <t>Mixed Waste</t>
+  </si>
+  <si>
+    <t>Separately Collected Waste</t>
   </si>
 </sst>
 </file>
@@ -252,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,14 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -308,15 +300,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -834,13 +826,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1193,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8C5DE7-3C02-44B7-92D3-18AE381DDFC3}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1423,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="9" t="s">
@@ -2191,7 +2183,7 @@
     </row>
     <row r="37" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="60"/>
       <c r="C37" s="30" t="s">
@@ -2215,21 +2207,21 @@
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="82">
         <f>SUM(E38:E46)</f>
-        <v>56469</v>
+        <v>58969</v>
       </c>
       <c r="B38" s="60"/>
       <c r="C38" s="67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="39">
         <v>1000</v>
       </c>
       <c r="F38" s="33">
         <f t="shared" ref="F38:F44" si="15">E38/$E$47*100</f>
-        <v>1.7708831394216296</v>
+        <v>1.6958062710915907</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -2241,17 +2233,17 @@
       <c r="A39" s="12"/>
       <c r="B39" s="60"/>
       <c r="C39" s="83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="10">
         <v>12345</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="15"/>
-        <v>21.861552356160015</v>
+        <v>20.934728416625685</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -2263,17 +2255,17 @@
       <c r="A40" s="12"/>
       <c r="B40" s="60"/>
       <c r="C40" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="39">
         <v>22000</v>
       </c>
       <c r="F40" s="33">
         <f t="shared" si="15"/>
-        <v>38.959429067275849</v>
+        <v>37.30773796401499</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -2287,17 +2279,17 @@
       </c>
       <c r="B41" s="60"/>
       <c r="C41" s="83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="10">
         <v>124</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="15"/>
-        <v>0.21958950928828205</v>
+        <v>0.21027997761535722</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -2309,7 +2301,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="60"/>
       <c r="C42" s="67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>10</v>
@@ -2319,7 +2311,7 @@
       </c>
       <c r="F42" s="33">
         <f t="shared" si="15"/>
-        <v>8.8544156971081485</v>
+        <v>8.4790313554579519</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2331,7 +2323,7 @@
       <c r="A43" s="12"/>
       <c r="B43" s="60"/>
       <c r="C43" s="68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>11</v>
@@ -2341,7 +2333,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="15"/>
-        <v>3.5417662788432591</v>
+        <v>3.3916125421831813</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -2353,17 +2345,17 @@
       <c r="A44" s="12"/>
       <c r="B44" s="60"/>
       <c r="C44" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="31" t="s">
         <v>62</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>64</v>
       </c>
       <c r="E44" s="39">
         <v>4000</v>
       </c>
       <c r="F44" s="33">
         <f t="shared" si="15"/>
-        <v>7.0835325576865182</v>
+        <v>6.7832250843663626</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -2375,17 +2367,17 @@
       <c r="A45" s="12"/>
       <c r="B45" s="60"/>
       <c r="C45" s="68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E45" s="10">
         <v>10000</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" ref="F45:F46" si="16">E45/$E$47*100</f>
-        <v>17.708831394216297</v>
+        <v>16.958062710915904</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -2397,17 +2389,17 @@
       <c r="A46" s="12"/>
       <c r="B46" s="60"/>
       <c r="C46" s="67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E46" s="70">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F46" s="71">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.239515677728976</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -2417,18 +2409,18 @@
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="85" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B47" s="60"/>
       <c r="C47" s="68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="40">
         <f>SUM(E38:E46)</f>
-        <v>56469</v>
+        <v>58969</v>
       </c>
       <c r="F47" s="34">
         <f>SUM(F38:F46)</f>
@@ -2458,7 +2450,7 @@
       <c r="B49" s="60"/>
       <c r="C49" s="12"/>
       <c r="D49" s="86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" s="86"/>
       <c r="F49" s="86"/>
@@ -2475,16 +2467,16 @@
         <v>1</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E50" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="81" t="s">
         <v>48</v>
-      </c>
-      <c r="F50" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" s="81" t="s">
-        <v>50</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>31</v>
@@ -2497,7 +2489,7 @@
       <c r="A51" s="85"/>
       <c r="B51" s="60"/>
       <c r="C51" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" s="50">
         <v>0</v>
@@ -2523,7 +2515,7 @@
       <c r="A52" s="85"/>
       <c r="B52" s="60"/>
       <c r="C52" s="83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D52" s="52">
         <v>0</v>
@@ -2549,7 +2541,7 @@
       <c r="A53" s="85"/>
       <c r="B53" s="60"/>
       <c r="C53" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D53" s="50">
         <v>0</v>
@@ -2575,7 +2567,7 @@
       <c r="A54" s="85"/>
       <c r="B54" s="60"/>
       <c r="C54" s="83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" s="52">
         <v>0</v>
@@ -2601,7 +2593,7 @@
       <c r="A55" s="85"/>
       <c r="B55" s="60"/>
       <c r="C55" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D55" s="50">
         <v>0</v>
@@ -2627,7 +2619,7 @@
       <c r="A56" s="85"/>
       <c r="B56" s="60"/>
       <c r="C56" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" s="52">
         <v>0</v>
@@ -2653,13 +2645,13 @@
       <c r="A57" s="85"/>
       <c r="B57" s="60"/>
       <c r="C57" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="50">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E57" s="32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F57" s="32">
         <v>60</v>
@@ -2679,7 +2671,7 @@
       <c r="A58" s="85"/>
       <c r="B58" s="60"/>
       <c r="C58" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D58" s="52">
         <v>10</v>
@@ -2705,7 +2697,7 @@
       <c r="A59" s="85"/>
       <c r="B59" s="60"/>
       <c r="C59" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D59" s="54">
         <v>10</v>
@@ -2747,16 +2739,16 @@
         <v>1</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E61" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="43" t="s">
         <v>51</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="43" t="s">
-        <v>53</v>
       </c>
       <c r="H61" s="20" t="s">
         <v>37</v>
@@ -2769,7 +2761,7 @@
       <c r="A62" s="85"/>
       <c r="B62" s="60"/>
       <c r="C62" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" s="72">
         <f>D51*$E$38/100</f>
@@ -2799,7 +2791,7 @@
       <c r="A63" s="85"/>
       <c r="B63" s="60"/>
       <c r="C63" s="83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63" s="59">
         <f>D52*$E$39/100</f>
@@ -2829,7 +2821,7 @@
       <c r="A64" s="85"/>
       <c r="B64" s="60"/>
       <c r="C64" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D64" s="57">
         <f>D53*$E$40/100</f>
@@ -2859,7 +2851,7 @@
       <c r="A65" s="85"/>
       <c r="B65" s="60"/>
       <c r="C65" s="83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65" s="59">
         <f>D54*$E$41/100</f>
@@ -2889,7 +2881,7 @@
       <c r="A66" s="85"/>
       <c r="B66" s="60"/>
       <c r="C66" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D66" s="57">
         <f>D55*$E$42/100</f>
@@ -2919,7 +2911,7 @@
       <c r="A67" s="85"/>
       <c r="B67" s="60"/>
       <c r="C67" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D67" s="59">
         <f>D56*$E$43/100</f>
@@ -2949,15 +2941,15 @@
       <c r="A68" s="85"/>
       <c r="B68" s="60"/>
       <c r="C68" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" s="57">
         <f>D57*$E$44/100</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E68" s="32">
         <f t="shared" ref="E68:G68" si="25">E57*$E$44/100</f>
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="F68" s="32">
         <f t="shared" si="25"/>
@@ -2979,7 +2971,7 @@
       <c r="A69" s="85"/>
       <c r="B69" s="60"/>
       <c r="C69" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D69" s="59">
         <f>D58*$E$45/100</f>
@@ -3009,19 +3001,19 @@
       <c r="A70" s="85"/>
       <c r="B70" s="60"/>
       <c r="C70" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D70" s="61">
         <f>D59*$E$46/100</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E70" s="62">
         <f t="shared" ref="E70:G70" si="27">E59*$E$46/100</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F70" s="62">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="G70" s="63">
         <f t="shared" si="27"/>
@@ -3029,7 +3021,7 @@
       </c>
       <c r="H70" s="32">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
@@ -3132,7 +3124,7 @@
     <mergeCell ref="A47:A74"/>
     <mergeCell ref="D49:G49"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H51:H59">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>100</formula>

--- a/Files/Inventory_data.xlsx
+++ b/Files/Inventory_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgouv\PycharmProjects\IN+\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABF865-7193-4CDA-999E-78586C3D2FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139EF863-63E3-4F63-991E-D9E04E96F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92E2ADF7-73FA-428E-B24A-CF1333C5A8EE}"/>
   </bookViews>
@@ -832,14 +832,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8C5DE7-3C02-44B7-92D3-18AE381DDFC3}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,7 @@
       <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="86" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="60"/>
@@ -1451,7 +1451,7 @@
       <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="60"/>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -1478,7 +1478,7 @@
       <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="60"/>
       <c r="C11" s="9" t="s">
         <v>26</v>
@@ -1504,7 +1504,7 @@
       <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="60"/>
       <c r="C12" s="9"/>
       <c r="D12" s="12"/>
@@ -1517,7 +1517,7 @@
       <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="60"/>
       <c r="C13" s="28" t="s">
         <v>1</v>
@@ -1544,7 +1544,7 @@
       <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="60"/>
       <c r="C14" s="5" t="s">
         <v>17</v>
@@ -1572,7 +1572,7 @@
       <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="60"/>
       <c r="C15" s="9" t="s">
         <v>18</v>
@@ -1600,7 +1600,7 @@
       <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="60"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
@@ -1628,7 +1628,7 @@
       <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="60"/>
       <c r="C17" s="9" t="s">
         <v>20</v>
@@ -1656,7 +1656,7 @@
       <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="60"/>
       <c r="C18" s="5" t="s">
         <v>21</v>
@@ -1684,7 +1684,7 @@
       <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="60"/>
       <c r="C19" s="9" t="s">
         <v>22</v>
@@ -1712,7 +1712,7 @@
       <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="60"/>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -1740,7 +1740,7 @@
       <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="60"/>
       <c r="C21" s="9" t="s">
         <v>24</v>
@@ -1768,7 +1768,7 @@
       <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="60"/>
       <c r="C22" s="5" t="s">
         <v>25</v>
@@ -1796,7 +1796,7 @@
       <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="60"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1809,7 +1809,7 @@
       <c r="K23" s="74"/>
     </row>
     <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="60"/>
       <c r="C24" s="28" t="s">
         <v>1</v>
@@ -1836,7 +1836,7 @@
       <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="60"/>
       <c r="C25" s="5" t="s">
         <v>17</v>
@@ -1871,7 +1871,7 @@
       <c r="M25" s="64"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="60"/>
       <c r="C26" s="9" t="s">
         <v>18</v>
@@ -1905,7 +1905,7 @@
       <c r="M26" s="64"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="60"/>
       <c r="C27" s="5" t="s">
         <v>19</v>
@@ -1939,7 +1939,7 @@
       <c r="M27" s="64"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="60"/>
       <c r="C28" s="9" t="s">
         <v>20</v>
@@ -1973,7 +1973,7 @@
       <c r="M28" s="64"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="60"/>
       <c r="C29" s="5" t="s">
         <v>21</v>
@@ -2007,7 +2007,7 @@
       <c r="M29" s="64"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="60"/>
       <c r="C30" s="9" t="s">
         <v>22</v>
@@ -2041,7 +2041,7 @@
       <c r="M30" s="64"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="60"/>
       <c r="C31" s="5" t="s">
         <v>23</v>
@@ -2074,7 +2074,7 @@
       <c r="K31" s="74"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="60"/>
       <c r="C32" s="9" t="s">
         <v>24</v>
@@ -2449,12 +2449,12 @@
       <c r="A49" s="85"/>
       <c r="B49" s="60"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="86" t="s">
+      <c r="D49" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
